--- a/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForANC&amp;GameMode-王福星" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>ANC和游戏模式功能_测试用例</t>
     </r>
     <r>
@@ -38,7 +44,6 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（1.ANC可视化参数配置；2.ANC三种模式的工作流程；3.低延时模式，GAME开关的区别；）</t>
@@ -73,6 +78,33 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>ANC模式</t>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_01</t>
+  </si>
+  <si>
+    <t>ANC模式切换</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对状态
+2.双耳没有连接经典蓝牙
+3.双耳没有连接APP
+4.触摸按键功能设置了ANC切换</t>
+  </si>
+  <si>
+    <t>1.通过触摸按键依次切换ANC的三种模式</t>
+  </si>
+  <si>
+    <t>1.切换到对应的ANC模式时有对应的效果（人为判断）</t>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
@@ -106,14 +138,12 @@
       <b/>
       <sz val="16"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -272,11 +302,10 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +658,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +682,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -665,89 +700,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +800,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,14 +1341,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="101.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1348,10 +1404,59 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" ht="85.5" spans="1:9">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"通过,不通过,未测试,无效"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForANC&amp;GameMode-王福星" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -92,19 +92,1663 @@
     <t>高</t>
   </si>
   <si>
-    <t>1.双耳已经配对状态
-2.双耳没有连接经典蓝牙
-3.双耳没有连接APP
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4.触摸按键功能设置了ANC切换</t>
+    </r>
   </si>
   <si>
     <t>1.通过触摸按键依次切换ANC的三种模式</t>
   </si>
   <si>
-    <t>1.切换到对应的ANC模式时有对应的效果（人为判断）</t>
+    <t>1.切换到对应的ANC模式时有对应的效果（比如提示音以及耳机变化）</t>
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_02</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_03</t>
+  </si>
+  <si>
+    <r>
+      <t>1.双耳已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过触摸按键依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_04</t>
+  </si>
+  <si>
+    <r>
+      <t>1.单耳开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过触摸按键依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_05</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳通话状态下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过触摸按键依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_06</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳通话状态下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过触摸按键依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_07</t>
+  </si>
+  <si>
+    <r>
+      <t>1.双耳已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_08</t>
+  </si>
+  <si>
+    <r>
+      <t>1.双耳已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放歌曲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_09</t>
+  </si>
+  <si>
+    <r>
+      <t>1.单耳开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了ANC切换</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_10</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放歌曲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_11</t>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_12</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_13</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_14</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换ANC的三种模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_ANCMODE_15</t>
+  </si>
+  <si>
+    <t>游戏模式</t>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_16</t>
+  </si>
+  <si>
+    <t>GAME模式</t>
+  </si>
+  <si>
+    <t>GAME模式切换</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>1.听到游戏模式提示音
+2.专业设备测试</t>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_17</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_18</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_19</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_20</t>
+  </si>
+  <si>
+    <r>
+      <t>1.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_21</t>
+  </si>
+  <si>
+    <r>
+      <t>1.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_22</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_23</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_24</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_25</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经配对状态
+2.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.双耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放歌曲状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_26</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机状态
+2.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接经典蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.单耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.触摸按键功能设置了GAME切换</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_27</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_28</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_29</t>
+  </si>
+  <si>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下
+2.通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触摸按键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次切换GAME模式</t>
+    </r>
+  </si>
+  <si>
+    <t>EAR_GAMEMODE_30</t>
   </si>
 </sst>
 </file>
@@ -117,7 +1761,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -296,6 +1940,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -782,7 +2432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,11 +2460,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1341,15 +3000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F37" sqref="H37 F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="15.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="7.875" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
@@ -1358,7 +3017,7 @@
     <col min="10" max="10" width="101.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="21" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +3031,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="24" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="13" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +3077,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="85.5" spans="1:9">
+    <row r="4" ht="90" spans="1:9">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1447,13 +3106,869 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" ht="90" spans="1:9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="75" spans="1:9">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="75" spans="1:9">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="75" spans="1:9">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="75" spans="1:9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="90" spans="1:9">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="75" spans="1:9">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="75" spans="1:9">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="75" spans="1:9">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="75" spans="1:9">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="75" spans="1:9">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="75" spans="1:9">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="1:9">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="75" spans="1:9">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" ht="90" spans="1:9">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="90" spans="1:9">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="75" spans="1:9">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="75" spans="1:9">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="75" spans="1:9">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="75" spans="1:9">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="60" spans="1:9">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:9">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="45" spans="1:9">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="1:9">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="75" spans="1:9">
+      <c r="A30" s="7">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="45" spans="1:9">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="45" spans="1:9">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="45" spans="1:9">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="45" spans="1:9">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34">
       <formula1>"通过,不通过,未测试,无效"</formula1>
     </dataValidation>
   </dataValidations>

--- a/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForANC&GameMode-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForANC&amp;GameMode-王福星" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -93,6 +93,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -164,6 +169,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -226,6 +236,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.双耳已经配对状态
 2.双耳</t>
     </r>
@@ -268,6 +283,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -294,6 +314,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.单耳开机状态
 2.单耳</t>
     </r>
@@ -336,6 +361,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -362,6 +392,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -388,6 +423,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -414,6 +454,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.双耳已经配对状态
 2.双耳</t>
     </r>
@@ -456,6 +501,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.通过</t>
     </r>
     <r>
@@ -481,6 +531,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.双耳已经配对状态
 2.双耳</t>
     </r>
@@ -523,6 +578,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -566,6 +626,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.单耳开机状态
 2.单耳</t>
     </r>
@@ -611,6 +676,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -657,6 +727,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -700,6 +775,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -743,6 +823,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -798,6 +883,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -857,6 +947,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.通过</t>
     </r>
     <r>
@@ -886,6 +981,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -948,6 +1048,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1007,6 +1112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.双耳</t>
     </r>
     <r>
@@ -1050,6 +1160,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1109,6 +1224,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1152,6 +1272,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.双耳</t>
     </r>
     <r>
@@ -1195,6 +1320,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.单耳</t>
     </r>
     <r>
@@ -1238,6 +1368,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1288,6 +1423,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.通过</t>
     </r>
     <r>
@@ -1313,6 +1453,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1363,6 +1508,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -1406,6 +1556,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1459,6 +1614,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1518,6 +1678,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -1561,6 +1726,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1623,6 +1793,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -1666,6 +1841,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -1709,6 +1889,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -1749,6 +1934,9 @@
   </si>
   <si>
     <t>EAR_GAMEMODE_30</t>
+  </si>
+  <si>
+    <t>后续遇到客户个性化需求测试用例可以增加</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2468,9 +2656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3000,13 +3185,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="H37 F37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="7.875" customWidth="1"/>
@@ -3017,7 +3202,7 @@
     <col min="10" max="10" width="101.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3216,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="12" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3077,7 +3262,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="90" spans="1:9">
+    <row r="4" ht="85.5" spans="1:9">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -3106,7 +3291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="90" spans="1:9">
+    <row r="5" ht="85.5" spans="1:9">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3135,7 +3320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="1:9">
+    <row r="6" ht="71.25" spans="1:9">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -3164,7 +3349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="1:9">
+    <row r="7" ht="71.25" spans="1:9">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -3193,7 +3378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="75" spans="1:9">
+    <row r="8" ht="71.25" spans="1:9">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -3222,7 +3407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="75" spans="1:9">
+    <row r="9" ht="71.25" spans="1:9">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -3251,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="90" spans="1:9">
+    <row r="10" ht="85.5" spans="1:9">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -3280,7 +3465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="75" spans="1:9">
+    <row r="11" ht="71.25" spans="1:9">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -3309,7 +3494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="75" spans="1:9">
+    <row r="12" ht="71.25" spans="1:9">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -3338,7 +3523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="75" spans="1:9">
+    <row r="13" ht="71.25" spans="1:9">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -3367,7 +3552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="75" spans="1:9">
+    <row r="14" ht="71.25" spans="1:9">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -3396,7 +3581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="75" spans="1:9">
+    <row r="15" ht="71.25" spans="1:9">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -3425,7 +3610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="75" spans="1:9">
+    <row r="16" ht="71.25" spans="1:9">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -3454,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="75" spans="1:9">
+    <row r="17" ht="71.25" spans="1:9">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -3483,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="75" spans="1:9">
+    <row r="18" ht="71.25" spans="1:9">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -3513,20 +3698,20 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="90" spans="1:9">
+    <row r="20" ht="85.5" spans="1:9">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -3545,7 +3730,7 @@
       <c r="F20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -3555,7 +3740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="90" spans="1:9">
+    <row r="21" ht="85.5" spans="1:9">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -3574,7 +3759,7 @@
       <c r="F21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -3584,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:9">
+    <row r="22" ht="71.25" spans="1:9">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -3613,7 +3798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="75" spans="1:9">
+    <row r="23" ht="71.25" spans="1:9">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -3642,7 +3827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="75" spans="1:9">
+    <row r="24" ht="71.25" spans="1:9">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -3671,7 +3856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="75" spans="1:9">
+    <row r="25" ht="71.25" spans="1:9">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -3700,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="60" spans="1:9">
+    <row r="26" ht="57" spans="1:9">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -3729,7 +3914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="1:9">
+    <row r="27" ht="42.75" spans="1:9">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -3758,7 +3943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" ht="45" spans="1:9">
+    <row r="28" ht="42.75" spans="1:9">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -3787,7 +3972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="1:9">
+    <row r="29" ht="71.25" spans="1:9">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -3816,7 +4001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" ht="75" spans="1:9">
+    <row r="30" ht="71.25" spans="1:9">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -3845,7 +4030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="45" spans="1:9">
+    <row r="31" ht="42.75" spans="1:9">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -3874,7 +4059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="45" spans="1:9">
+    <row r="32" ht="42.75" spans="1:9">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -3903,7 +4088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="45" spans="1:9">
+    <row r="33" ht="42.75" spans="1:9">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -3932,7 +4117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" ht="45" spans="1:9">
+    <row r="34" ht="42.75" spans="1:9">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -3961,14 +4146,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A35:J35"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35 I4:I18 I20:I34">
       <formula1>"通过,不通过,未测试,无效"</formula1>
     </dataValidation>
   </dataValidations>
